--- a/src/assets/zxsj_mb/zxtb_k15_cdxm.xlsx
+++ b/src/assets/zxsj_mb/zxtb_k15_cdxm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>年度</t>
   </si>
@@ -40,22 +40,34 @@
     <t>上海开放大学</t>
   </si>
   <si>
-    <t>联合国教科文组织</t>
+    <t>项目名称1</t>
+  </si>
+  <si>
+    <t>教育部</t>
   </si>
   <si>
     <t>国家级</t>
   </si>
   <si>
+    <t>项目名称2</t>
+  </si>
+  <si>
     <t>上海市</t>
   </si>
   <si>
+    <t>市级</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>项目名称3</t>
+  </si>
+  <si>
+    <t>国家开放大学</t>
+  </si>
+  <si>
     <t>省部级</t>
-  </si>
-  <si>
-    <t>国家开放大学</t>
-  </si>
-  <si>
-    <t>区级</t>
   </si>
 </sst>
 </file>
@@ -63,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -86,22 +98,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,7 +135,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,8 +186,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,9 +209,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,68 +227,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,181 +250,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,6 +460,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -458,6 +494,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,52 +536,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -564,139 +576,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -704,8 +719,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1029,7 +1044,9 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1040,90 +1057,103 @@
     <col min="4" max="4" width="22.8333333333333" customWidth="1"/>
     <col min="5" max="5" width="25.1111111111111" customWidth="1"/>
     <col min="6" max="6" width="15.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="16.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="16.4444444444444" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:7">
-      <c r="A2" s="2">
-        <v>2018</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B2" s="3">
         <v>51252</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:7">
-      <c r="A3" s="2">
-        <v>2017</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="A3" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B3" s="3">
         <v>51252</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:7">
-      <c r="A4" s="2">
-        <v>2016</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="A4" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B4" s="3">
         <v>51252</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="4"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F$1:F$1048576">
+      <formula1>"国家级,省部级,市级,行业"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
